--- a/misc/arithmetic profiling/tehnumbers.xlsx
+++ b/misc/arithmetic profiling/tehnumbers.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\root\git\thenfour\Clarinoid\misc\arithmetic profiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA77BA00-5E7D-4EB9-AC84-F0A07E0E57B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05683C86-D27C-4402-BFA9-3AEB38500F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{3BF1D7F0-8F46-4777-A8D1-30871FF901EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" activeTab="1" xr2:uid="{3BF1D7F0-8F46-4777-A8D1-30871FF901EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sim" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId2"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="301">
   <si>
     <t>Mul_S8</t>
   </si>
@@ -455,57 +456,33 @@
     <t>Shl_S8</t>
   </si>
   <si>
-    <t>3F</t>
-  </si>
-  <si>
     <t>Shl</t>
   </si>
   <si>
     <t>Shl_U8</t>
   </si>
   <si>
-    <t>E8</t>
-  </si>
-  <si>
     <t>Shl_S16</t>
   </si>
   <si>
     <t>Shl_U16</t>
   </si>
   <si>
-    <t>D8B9</t>
-  </si>
-  <si>
     <t>Shl_S32</t>
   </si>
   <si>
-    <t>-65A5BECD</t>
-  </si>
-  <si>
     <t>Shl_U32</t>
   </si>
   <si>
-    <t>54F989E</t>
-  </si>
-  <si>
     <t>Shl_S64</t>
   </si>
   <si>
-    <t>-540AAABE</t>
-  </si>
-  <si>
     <t>Shl_U64</t>
   </si>
   <si>
-    <t>-7E28C146</t>
-  </si>
-  <si>
     <t>Shr_S8</t>
   </si>
   <si>
-    <t>7C</t>
-  </si>
-  <si>
     <t>Shr</t>
   </si>
   <si>
@@ -518,33 +495,18 @@
     <t>Shr_U16</t>
   </si>
   <si>
-    <t>2E5E</t>
-  </si>
-  <si>
     <t>Shr_S32</t>
   </si>
   <si>
-    <t>-1BBCB029</t>
-  </si>
-  <si>
     <t>Shr_U32</t>
   </si>
   <si>
-    <t>-1B3A99FE</t>
-  </si>
-  <si>
     <t>Shr_S64</t>
   </si>
   <si>
-    <t>40BFF77B</t>
-  </si>
-  <si>
     <t>Shr_U64</t>
   </si>
   <si>
-    <t>-4E1D929F</t>
-  </si>
-  <si>
     <t>And_S8</t>
   </si>
   <si>
@@ -554,42 +516,24 @@
     <t>And_U8</t>
   </si>
   <si>
-    <t>6B</t>
-  </si>
-  <si>
     <t>And_S16</t>
   </si>
   <si>
     <t>And_U16</t>
   </si>
   <si>
-    <t>3A1E</t>
-  </si>
-  <si>
     <t>And_S32</t>
   </si>
   <si>
-    <t>358670B1</t>
-  </si>
-  <si>
     <t>And_U32</t>
   </si>
   <si>
-    <t>-4EA64626</t>
-  </si>
-  <si>
     <t>And_S64</t>
   </si>
   <si>
-    <t>2A537947</t>
-  </si>
-  <si>
     <t>And_U64</t>
   </si>
   <si>
-    <t>-36D9902C</t>
-  </si>
-  <si>
     <t>Or_S8</t>
   </si>
   <si>
@@ -605,33 +549,18 @@
     <t>Or_U16</t>
   </si>
   <si>
-    <t>39F5</t>
-  </si>
-  <si>
     <t>Or_S32</t>
   </si>
   <si>
-    <t>3DBB087</t>
-  </si>
-  <si>
     <t>Or_U32</t>
   </si>
   <si>
-    <t>-653EB132</t>
-  </si>
-  <si>
     <t>Or_S64</t>
   </si>
   <si>
-    <t>-4C9B4BC5</t>
-  </si>
-  <si>
     <t>Or_U64</t>
   </si>
   <si>
-    <t>-3D237E5B</t>
-  </si>
-  <si>
     <t>val</t>
   </si>
   <si>
@@ -662,30 +591,18 @@
     <t>Mod_U16</t>
   </si>
   <si>
-    <t>682F</t>
-  </si>
-  <si>
     <t>Mod_S32</t>
   </si>
   <si>
-    <t>-43F16848</t>
-  </si>
-  <si>
     <t>Mod_U32</t>
   </si>
   <si>
-    <t>-3C579005</t>
-  </si>
-  <si>
     <t>Mod_S64</t>
   </si>
   <si>
     <t>Mod_U64</t>
   </si>
   <si>
-    <t>11D04109</t>
-  </si>
-  <si>
     <t>Mod_F</t>
   </si>
   <si>
@@ -696,13 +613,340 @@
   </si>
   <si>
     <t>mod on 64-bit is also horrible (it does a division)</t>
+  </si>
+  <si>
+    <t>To64_S8</t>
+  </si>
+  <si>
+    <t>To64</t>
+  </si>
+  <si>
+    <t>To64_U8</t>
+  </si>
+  <si>
+    <t>6F</t>
+  </si>
+  <si>
+    <t>To64_S16</t>
+  </si>
+  <si>
+    <t>-74FA</t>
+  </si>
+  <si>
+    <t>To64_U16</t>
+  </si>
+  <si>
+    <t>A558</t>
+  </si>
+  <si>
+    <t>To64_S32</t>
+  </si>
+  <si>
+    <t>1AF24346</t>
+  </si>
+  <si>
+    <t>To64_U32</t>
+  </si>
+  <si>
+    <t>-264D307E</t>
+  </si>
+  <si>
+    <t>To64_S64</t>
+  </si>
+  <si>
+    <t>2868D08C</t>
+  </si>
+  <si>
+    <t>To64_U64</t>
+  </si>
+  <si>
+    <t>-1953D771</t>
+  </si>
+  <si>
+    <t>To64_F</t>
+  </si>
+  <si>
+    <t>To64_D</t>
+  </si>
+  <si>
+    <t>From64_S8</t>
+  </si>
+  <si>
+    <t>From64</t>
+  </si>
+  <si>
+    <t>From64_U8</t>
+  </si>
+  <si>
+    <t>From64_S16</t>
+  </si>
+  <si>
+    <t>5C6F</t>
+  </si>
+  <si>
+    <t>From64_U16</t>
+  </si>
+  <si>
+    <t>52F</t>
+  </si>
+  <si>
+    <t>From64_S32</t>
+  </si>
+  <si>
+    <t>-22C7D3B1</t>
+  </si>
+  <si>
+    <t>From64_U32</t>
+  </si>
+  <si>
+    <t>-18F8AAAD</t>
+  </si>
+  <si>
+    <t>From64_S64</t>
+  </si>
+  <si>
+    <t>-76DFAFD1</t>
+  </si>
+  <si>
+    <t>From64_U64</t>
+  </si>
+  <si>
+    <t>16F878B4</t>
+  </si>
+  <si>
+    <t>From64_F</t>
+  </si>
+  <si>
+    <t>From64_D</t>
+  </si>
+  <si>
+    <t>742217EA</t>
+  </si>
+  <si>
+    <t>-150E991D</t>
+  </si>
+  <si>
+    <t>6D21471B</t>
+  </si>
+  <si>
+    <t>2ACEC80F</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>-4CA7</t>
+  </si>
+  <si>
+    <t>E56</t>
+  </si>
+  <si>
+    <t>-2B55B02B</t>
+  </si>
+  <si>
+    <t>-5C410735</t>
+  </si>
+  <si>
+    <t>64E861C1</t>
+  </si>
+  <si>
+    <t>31C5F276</t>
+  </si>
+  <si>
+    <t>-5B</t>
+  </si>
+  <si>
+    <t>4C5C</t>
+  </si>
+  <si>
+    <t>B9F</t>
+  </si>
+  <si>
+    <t>-48F1F045</t>
+  </si>
+  <si>
+    <t>-56B54919</t>
+  </si>
+  <si>
+    <t>28EF75A5</t>
+  </si>
+  <si>
+    <t>-5333421D</t>
+  </si>
+  <si>
+    <t>5E</t>
+  </si>
+  <si>
+    <t>-298C</t>
+  </si>
+  <si>
+    <t>A548</t>
+  </si>
+  <si>
+    <t>-7BF3BED1</t>
+  </si>
+  <si>
+    <t>-21F6B202</t>
+  </si>
+  <si>
+    <t>100AD930</t>
+  </si>
+  <si>
+    <t>72DE9C25</t>
+  </si>
+  <si>
+    <t>-6D</t>
+  </si>
+  <si>
+    <t>EC39</t>
+  </si>
+  <si>
+    <t>55AF43DE</t>
+  </si>
+  <si>
+    <t>245BCD8</t>
+  </si>
+  <si>
+    <t>-59C20960</t>
+  </si>
+  <si>
+    <t>7232D45B</t>
+  </si>
+  <si>
+    <t>Divf_S8</t>
+  </si>
+  <si>
+    <t>-1D</t>
+  </si>
+  <si>
+    <t>Divf</t>
+  </si>
+  <si>
+    <t>Divf_U8</t>
+  </si>
+  <si>
+    <t>Divf_S16</t>
+  </si>
+  <si>
+    <t>Divf_U16</t>
+  </si>
+  <si>
+    <t>1B65</t>
+  </si>
+  <si>
+    <t>Divf_S32</t>
+  </si>
+  <si>
+    <t>9E86D</t>
+  </si>
+  <si>
+    <t>Divf_U32</t>
+  </si>
+  <si>
+    <t>927BE</t>
+  </si>
+  <si>
+    <t>Divf_S64</t>
+  </si>
+  <si>
+    <t>92BD3</t>
+  </si>
+  <si>
+    <t>Divf_U64</t>
+  </si>
+  <si>
+    <t>833B2</t>
+  </si>
+  <si>
+    <t>Divf_F</t>
+  </si>
+  <si>
+    <t>1223FC</t>
+  </si>
+  <si>
+    <t>Divf_D</t>
+  </si>
+  <si>
+    <t>8AB6C</t>
+  </si>
+  <si>
+    <t>using a float temporary (to increase precision) is about 2x slower than the integer division. But still ~2x faster than 64-bit divide</t>
+  </si>
+  <si>
+    <t>considering how many fewer instructions floating point types take though, its still often faster to just use floating point the whole time.</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>time-allow64</t>
+  </si>
+  <si>
+    <t>time-allowfloat</t>
+  </si>
+  <si>
+    <t>fullfloat</t>
+  </si>
+  <si>
+    <t>a*b+c/e</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>time-32only</t>
+  </si>
+  <si>
+    <t>to32</t>
+  </si>
+  <si>
+    <t>mul-shift</t>
+  </si>
+  <si>
+    <t>div-shift</t>
+  </si>
+  <si>
+    <t>to64-a</t>
+  </si>
+  <si>
+    <t>to32-a</t>
+  </si>
+  <si>
+    <t>tofloat</t>
+  </si>
+  <si>
+    <t>conv-mul</t>
+  </si>
+  <si>
+    <t>a*b+c</t>
+  </si>
+  <si>
+    <t>Doing a sorta estimated benchmark shows that 32bit only works faster than float. It's like, 2x faster.</t>
+  </si>
+  <si>
+    <t>But the MOMENT you add a division that doesn't fit in 32-bit, things get complicated.</t>
+  </si>
+  <si>
+    <t>round-tripping through float is faster than using a 64-bit integer, so definitely do that.</t>
+  </si>
+  <si>
+    <t>but using float for the entire operation is faster.</t>
+  </si>
+  <si>
+    <t>I suspect for most real scenarios, containing the float roundtrip within the op function is faster and simpler.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,8 +976,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +994,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,10 +1019,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -773,10 +1037,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1010,6 +1280,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1043,200 +1369,194 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$I$4:$I$67</c:f>
+              <c:f>Sheet1!$I$4:$I$65</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="57"/>
+                <c:ptCount val="52"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>D</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>F</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>i16</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>i32</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>i64</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>i8</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Add</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="6">
                     <c:v>Div</c:v>
                   </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Sub</c:v>
+                  <c:pt idx="12">
+                    <c:v>Mul</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="18">
                     <c:v>To32</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>From32</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Mod</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Add</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Div</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Mul</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Sub</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>To32</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>From32</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Mod</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Add</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Div</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Mul</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Sub</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>To32</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>From32</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Shl</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Shr</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>And</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Or</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Mod</c:v>
-                  </c:pt>
                   <c:pt idx="24">
-                    <c:v>Add</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Div</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>Mul</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Sub</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>To32</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
                     <c:v>From32</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Shl</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
                     <c:v>Shr</c:v>
                   </c:pt>
-                  <c:pt idx="32">
-                    <c:v>And</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>Or</c:v>
-                  </c:pt>
                   <c:pt idx="34">
-                    <c:v>Mod</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>Add</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>Div</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>Mul</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>Sub</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>To32</c:v>
+                    <c:v>To64</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>From32</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
-                    <c:v>Shl</c:v>
-                  </c:pt>
-                  <c:pt idx="42">
-                    <c:v>Shr</c:v>
-                  </c:pt>
-                  <c:pt idx="43">
-                    <c:v>And</c:v>
-                  </c:pt>
-                  <c:pt idx="44">
-                    <c:v>Or</c:v>
-                  </c:pt>
-                  <c:pt idx="45">
-                    <c:v>Mod</c:v>
+                    <c:v>From64</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>Add</c:v>
-                  </c:pt>
-                  <c:pt idx="47">
-                    <c:v>Div</c:v>
-                  </c:pt>
-                  <c:pt idx="48">
-                    <c:v>Mul</c:v>
-                  </c:pt>
-                  <c:pt idx="49">
-                    <c:v>Sub</c:v>
-                  </c:pt>
-                  <c:pt idx="50">
-                    <c:v>To32</c:v>
-                  </c:pt>
-                  <c:pt idx="51">
-                    <c:v>From32</c:v>
-                  </c:pt>
-                  <c:pt idx="52">
-                    <c:v>Shl</c:v>
-                  </c:pt>
-                  <c:pt idx="53">
-                    <c:v>Shr</c:v>
-                  </c:pt>
-                  <c:pt idx="54">
-                    <c:v>And</c:v>
-                  </c:pt>
-                  <c:pt idx="55">
-                    <c:v>Or</c:v>
-                  </c:pt>
-                  <c:pt idx="56">
-                    <c:v>Mod</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>D</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>F</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>i16</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>i32</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>i64</c:v>
-                  </c:pt>
-                  <c:pt idx="46">
-                    <c:v>i8</c:v>
+                    <c:v>Divf</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1244,187 +1564,172 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$4:$J$67</c:f>
+              <c:f>Sheet1!$J$4:$J$65</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="57"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
-                  <c:v>2278</c:v>
+                  <c:v>2611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7000</c:v>
+                  <c:v>2166</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2390</c:v>
+                  <c:v>1082.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3667</c:v>
+                  <c:v>667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3667</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22379</c:v>
+                  <c:v>1083</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1834</c:v>
+                  <c:v>7334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4333</c:v>
+                  <c:v>4667</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2333</c:v>
+                  <c:v>1648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1833</c:v>
+                  <c:v>1397.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>12398.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1645</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2166</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2499.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1249.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>4000</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16909</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1647.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1250.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1083</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>583.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1667</c:v>
-                </c:pt>
                 <c:pt idx="19">
-                  <c:v>1083.5</c:v>
+                  <c:v>4167</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>916.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>999.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>916.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3833</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3666</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2499.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>999.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2249.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>917</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>916.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1064.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>333.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>333.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>333.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>333.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>333</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>1065</c:v>
+                  <c:v>19003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1000</c:v>
+                  <c:v>16675</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11982.5</c:v>
+                  <c:v>2416.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2166.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1000</c:v>
+                  <c:v>1166</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1583.5</c:v>
+                  <c:v>2583.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2250</c:v>
+                  <c:v>11334</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2000</c:v>
+                  <c:v>8340</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1916.5</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1000</c:v>
+                  <c:v>2333</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1000</c:v>
+                  <c:v>1166.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>12232.5</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1083</c:v>
+                  <c:v>7333</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1645</c:v>
+                  <c:v>4666</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1250</c:v>
+                  <c:v>6583</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1082.5</c:v>
+                  <c:v>5666.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>583.5</c:v>
+                  <c:v>23099.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1083.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>916.5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>916.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1978</c:v>
+                  <c:v>6565.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6ADF-4374-99FB-2B1BB176863D}"/>
+              <c16:uniqueId val="{00000000-C2A3-44E5-8CC0-F935710CE084}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1513,7 +1818,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2232,30 +2537,33 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="carl" refreshedDate="44930.370000810188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="102" xr:uid="{13540FD2-E20F-47F3-8187-034B97E8C016}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="carl" refreshedDate="44933.966028125004" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="132" xr:uid="{204A920C-AB59-4AC8-A9C3-F4ED50818234}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G103" sheet="Sheet1"/>
+    <worksheetSource ref="A1:G133" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Test" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="val" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-7.0661999999999997E+85" maxValue="5348"/>
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="-80000000" maxValue="6279"/>
     </cacheField>
     <cacheField name="OP" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="14">
         <s v="Mul"/>
         <s v="Div"/>
         <s v="Add"/>
         <s v="Sub"/>
         <s v="To32"/>
         <s v="From32"/>
+        <s v="To64"/>
+        <s v="From64"/>
         <s v="Shl"/>
         <s v="Shr"/>
         <s v="And"/>
         <s v="Or"/>
         <s v="Mod"/>
+        <s v="Divf"/>
       </sharedItems>
     </cacheField>
     <cacheField name="type" numFmtId="0">
@@ -2272,15 +2580,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="signedness" numFmtId="0">
-      <sharedItems count="4">
-        <s v="S"/>
-        <s v="U"/>
-        <s v="F"/>
-        <s v="D"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="time" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="333" maxValue="22379"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="666" maxValue="24016"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2292,15 +2595,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="102">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="132">
   <r>
     <s v="Mul_S8"/>
     <n v="21"/>
     <x v="0"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="1167"/>
+    <s v="S"/>
+    <n v="1166"/>
   </r>
   <r>
     <s v="Mul_U8"/>
@@ -2308,7 +2611,7 @@
     <x v="0"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1333"/>
   </r>
   <r>
@@ -2317,7 +2620,7 @@
     <x v="0"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="S"/>
     <n v="1167"/>
   </r>
   <r>
@@ -2326,8 +2629,8 @@
     <x v="0"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="1334"/>
+    <s v="U"/>
+    <n v="1333"/>
   </r>
   <r>
     <s v="Mul_S32"/>
@@ -2335,8 +2638,8 @@
     <x v="0"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="500"/>
+    <s v="S"/>
+    <n v="833"/>
   </r>
   <r>
     <s v="Mul_U32"/>
@@ -2344,8 +2647,8 @@
     <x v="0"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="500"/>
+    <s v="U"/>
+    <n v="833"/>
   </r>
   <r>
     <s v="Mul_S64"/>
@@ -2353,8 +2656,8 @@
     <x v="0"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="2166"/>
+    <s v="S"/>
+    <n v="2500"/>
   </r>
   <r>
     <s v="Mul_U64"/>
@@ -2362,8 +2665,8 @@
     <x v="0"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="2167"/>
+    <s v="U"/>
+    <n v="2499"/>
   </r>
   <r>
     <s v="Mul_F"/>
@@ -2371,17 +2674,17 @@
     <x v="0"/>
     <s v="F"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="1833"/>
+    <s v="F"/>
+    <n v="2166"/>
   </r>
   <r>
     <s v="Mul_D"/>
     <s v="7FFFFFFF"/>
     <x v="0"/>
     <s v="D"/>
-    <x v="4"/>
-    <x v="3"/>
-    <n v="2833"/>
+    <x v="5"/>
+    <s v="D"/>
+    <n v="3166"/>
   </r>
   <r>
     <s v="Div_S8"/>
@@ -2389,7 +2692,7 @@
     <x v="1"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="S"/>
     <n v="1644"/>
   </r>
   <r>
@@ -2398,7 +2701,7 @@
     <x v="1"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1646"/>
   </r>
   <r>
@@ -2407,8 +2710,8 @@
     <x v="1"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="1648"/>
+    <s v="S"/>
+    <n v="1649"/>
   </r>
   <r>
     <s v="Div_U16"/>
@@ -2416,7 +2719,7 @@
     <x v="1"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1647"/>
   </r>
   <r>
@@ -2425,8 +2728,8 @@
     <x v="1"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="1148"/>
+    <s v="S"/>
+    <n v="1481"/>
   </r>
   <r>
     <s v="Div_U32"/>
@@ -2434,8 +2737,8 @@
     <x v="1"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="981"/>
+    <s v="U"/>
+    <n v="1314"/>
   </r>
   <r>
     <s v="Div_S64"/>
@@ -2443,8 +2746,8 @@
     <x v="1"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="12149"/>
+    <s v="S"/>
+    <n v="12648"/>
   </r>
   <r>
     <s v="Div_U64"/>
@@ -2452,8 +2755,8 @@
     <x v="1"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="11816"/>
+    <s v="U"/>
+    <n v="12149"/>
   </r>
   <r>
     <s v="Div_F"/>
@@ -2461,8 +2764,8 @@
     <x v="1"/>
     <s v="F"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="4333"/>
+    <s v="F"/>
+    <n v="4667"/>
   </r>
   <r>
     <s v="Div_D"/>
@@ -2470,8 +2773,8 @@
     <x v="1"/>
     <s v="D"/>
     <x v="5"/>
-    <x v="3"/>
-    <n v="7000"/>
+    <s v="D"/>
+    <n v="7334"/>
   </r>
   <r>
     <s v="Add_S8"/>
@@ -2479,7 +2782,7 @@
     <x v="2"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="S"/>
     <n v="1000"/>
   </r>
   <r>
@@ -2488,7 +2791,7 @@
     <x v="2"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1166"/>
   </r>
   <r>
@@ -2497,8 +2800,8 @@
     <x v="2"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="1000"/>
+    <s v="S"/>
+    <n v="999"/>
   </r>
   <r>
     <s v="Add_U16"/>
@@ -2506,7 +2809,7 @@
     <x v="2"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1166"/>
   </r>
   <r>
@@ -2515,8 +2818,8 @@
     <x v="2"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="333"/>
+    <s v="S"/>
+    <n v="667"/>
   </r>
   <r>
     <s v="Add_U32"/>
@@ -2524,8 +2827,8 @@
     <x v="2"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
+    <s v="U"/>
+    <n v="667"/>
   </r>
   <r>
     <s v="Add_S64"/>
@@ -2533,8 +2836,8 @@
     <x v="2"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="1000"/>
+    <s v="S"/>
+    <n v="1333"/>
   </r>
   <r>
     <s v="Add_U64"/>
@@ -2542,8 +2845,8 @@
     <x v="2"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="1000"/>
+    <s v="U"/>
+    <n v="1333"/>
   </r>
   <r>
     <s v="Add_F"/>
@@ -2551,8 +2854,8 @@
     <x v="2"/>
     <s v="F"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="1834"/>
+    <s v="F"/>
+    <n v="2166"/>
   </r>
   <r>
     <s v="Add_D"/>
@@ -2560,8 +2863,8 @@
     <x v="2"/>
     <s v="D"/>
     <x v="5"/>
-    <x v="3"/>
-    <n v="2278"/>
+    <s v="D"/>
+    <n v="2611"/>
   </r>
   <r>
     <s v="Sub_S8"/>
@@ -2569,7 +2872,7 @@
     <x v="3"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="S"/>
     <n v="999"/>
   </r>
   <r>
@@ -2578,7 +2881,7 @@
     <x v="3"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1166"/>
   </r>
   <r>
@@ -2587,7 +2890,7 @@
     <x v="3"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="S"/>
     <n v="1000"/>
   </r>
   <r>
@@ -2596,7 +2899,7 @@
     <x v="3"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1166"/>
   </r>
   <r>
@@ -2605,8 +2908,8 @@
     <x v="3"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="333"/>
+    <s v="S"/>
+    <n v="666"/>
   </r>
   <r>
     <s v="Sub_U32"/>
@@ -2614,8 +2917,8 @@
     <x v="3"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
+    <s v="U"/>
+    <n v="666"/>
   </r>
   <r>
     <s v="Sub_S64"/>
@@ -2623,8 +2926,8 @@
     <x v="3"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="1000"/>
+    <s v="S"/>
+    <n v="1333"/>
   </r>
   <r>
     <s v="Sub_U64"/>
@@ -2632,8 +2935,8 @@
     <x v="3"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="1000"/>
+    <s v="U"/>
+    <n v="1333"/>
   </r>
   <r>
     <s v="Sub_F"/>
@@ -2641,8 +2944,8 @@
     <x v="3"/>
     <s v="F"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="1833"/>
+    <s v="F"/>
+    <n v="2166"/>
   </r>
   <r>
     <s v="Sub_D"/>
@@ -2650,8 +2953,8 @@
     <x v="3"/>
     <s v="D"/>
     <x v="5"/>
-    <x v="3"/>
-    <n v="2390"/>
+    <s v="D"/>
+    <n v="2723"/>
   </r>
   <r>
     <s v="To32_S8"/>
@@ -2659,8 +2962,8 @@
     <x v="4"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="667"/>
+    <s v="S"/>
+    <n v="1000"/>
   </r>
   <r>
     <s v="To32_U8"/>
@@ -2668,8 +2971,8 @@
     <x v="4"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="500"/>
+    <s v="U"/>
+    <n v="833"/>
   </r>
   <r>
     <s v="To32_S16"/>
@@ -2677,8 +2980,8 @@
     <x v="4"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="667"/>
+    <s v="S"/>
+    <n v="1000"/>
   </r>
   <r>
     <s v="To32_U16"/>
@@ -2686,8 +2989,8 @@
     <x v="4"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="500"/>
+    <s v="U"/>
+    <n v="833"/>
   </r>
   <r>
     <s v="To32_S32"/>
@@ -2695,8 +2998,8 @@
     <x v="4"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="333"/>
+    <s v="S"/>
+    <n v="667"/>
   </r>
   <r>
     <s v="To32_U32"/>
@@ -2704,8 +3007,8 @@
     <x v="4"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
+    <s v="U"/>
+    <n v="667"/>
   </r>
   <r>
     <s v="To32_S64"/>
@@ -2713,8 +3016,8 @@
     <x v="4"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="667"/>
+    <s v="S"/>
+    <n v="1000"/>
   </r>
   <r>
     <s v="To32_U64"/>
@@ -2722,8 +3025,8 @@
     <x v="4"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="2500"/>
+    <s v="U"/>
+    <n v="999"/>
   </r>
   <r>
     <s v="To32_F"/>
@@ -2731,8 +3034,8 @@
     <x v="4"/>
     <s v="F"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="4000"/>
+    <s v="F"/>
+    <n v="4167"/>
   </r>
   <r>
     <s v="To32_D"/>
@@ -2740,8 +3043,8 @@
     <x v="4"/>
     <s v="D"/>
     <x v="5"/>
-    <x v="3"/>
-    <n v="3667"/>
+    <s v="D"/>
+    <n v="4000"/>
   </r>
   <r>
     <s v="From32_S8"/>
@@ -2749,8 +3052,8 @@
     <x v="5"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="2167"/>
+    <s v="S"/>
+    <n v="2499"/>
   </r>
   <r>
     <s v="From32_U8"/>
@@ -2758,8 +3061,8 @@
     <x v="5"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="2333"/>
+    <s v="U"/>
+    <n v="2500"/>
   </r>
   <r>
     <s v="From32_S16"/>
@@ -2767,8 +3070,8 @@
     <x v="5"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="2334"/>
+    <s v="S"/>
+    <n v="2500"/>
   </r>
   <r>
     <s v="From32_U16"/>
@@ -2776,7 +3079,7 @@
     <x v="5"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="U"/>
     <n v="1000"/>
   </r>
   <r>
@@ -2785,8 +3088,8 @@
     <x v="5"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="334"/>
+    <s v="S"/>
+    <n v="666"/>
   </r>
   <r>
     <s v="From32_U32"/>
@@ -2794,8 +3097,8 @@
     <x v="5"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
+    <s v="U"/>
+    <n v="666"/>
   </r>
   <r>
     <s v="From32_S64"/>
@@ -2803,8 +3106,8 @@
     <x v="5"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="2167"/>
+    <s v="S"/>
+    <n v="2500"/>
   </r>
   <r>
     <s v="From32_U64"/>
@@ -2812,8 +3115,8 @@
     <x v="5"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="2333"/>
+    <s v="U"/>
+    <n v="2500"/>
   </r>
   <r>
     <s v="From32_F"/>
@@ -2821,8 +3124,8 @@
     <x v="5"/>
     <s v="F"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="3500"/>
+    <s v="F"/>
+    <n v="3666"/>
   </r>
   <r>
     <s v="From32_D"/>
@@ -2830,409 +3133,682 @@
     <x v="5"/>
     <s v="D"/>
     <x v="5"/>
-    <x v="3"/>
-    <n v="3667"/>
-  </r>
-  <r>
-    <s v="Shl_S8"/>
-    <s v="3F"/>
+    <s v="D"/>
+    <n v="3833"/>
+  </r>
+  <r>
+    <s v="To64_S8"/>
+    <n v="6"/>
     <x v="6"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="Shl_U8"/>
-    <s v="E8"/>
+    <s v="S"/>
+    <n v="2667"/>
+  </r>
+  <r>
+    <s v="To64_U8"/>
+    <s v="6F"/>
     <x v="6"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="1167"/>
-  </r>
-  <r>
-    <s v="Shl_S16"/>
-    <e v="#VALUE!"/>
+    <s v="U"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="To64_S16"/>
+    <s v="-74FA"/>
     <x v="6"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="Shl_U16"/>
-    <s v="D8B9"/>
+    <s v="S"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="To64_U16"/>
+    <s v="A558"/>
     <x v="6"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="1167"/>
-  </r>
-  <r>
-    <s v="Shl_S32"/>
-    <s v="-65A5BECD"/>
+    <s v="U"/>
+    <n v="2333"/>
+  </r>
+  <r>
+    <s v="To64_S32"/>
+    <s v="1AF24346"/>
     <x v="6"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="334"/>
-  </r>
-  <r>
-    <s v="Shl_U32"/>
-    <s v="54F989E"/>
+    <s v="S"/>
+    <n v="2166"/>
+  </r>
+  <r>
+    <s v="To64_U32"/>
+    <s v="-264D307E"/>
     <x v="6"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
-  </r>
-  <r>
-    <s v="Shl_S64"/>
-    <s v="-540AAABE"/>
+    <s v="U"/>
+    <n v="2167"/>
+  </r>
+  <r>
+    <s v="To64_S64"/>
+    <s v="2868D08C"/>
     <x v="6"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <s v="Shl_U64"/>
-    <s v="-7E28C146"/>
+    <s v="S"/>
+    <n v="1166"/>
+  </r>
+  <r>
+    <s v="To64_U64"/>
+    <s v="-1953D771"/>
     <x v="6"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <s v="Shr_S8"/>
-    <s v="7C"/>
+    <s v="U"/>
+    <n v="1166"/>
+  </r>
+  <r>
+    <s v="To64_F"/>
+    <s v="7FFFFFFF"/>
+    <x v="6"/>
+    <s v="F"/>
+    <x v="4"/>
+    <s v="F"/>
+    <n v="16675"/>
+  </r>
+  <r>
+    <s v="To64_D"/>
+    <s v="7FFFFFFF"/>
+    <x v="6"/>
+    <s v="D"/>
+    <x v="5"/>
+    <s v="D"/>
+    <n v="19003"/>
+  </r>
+  <r>
+    <s v="From64_S8"/>
+    <n v="-3"/>
     <x v="7"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="833"/>
-  </r>
-  <r>
-    <s v="Shr_U8"/>
-    <n v="82"/>
+    <s v="S"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="From64_U8"/>
+    <n v="34"/>
     <x v="7"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="1167"/>
-  </r>
-  <r>
-    <s v="Shr_S16"/>
-    <n v="-942"/>
+    <s v="U"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="From64_S16"/>
+    <s v="5C6F"/>
     <x v="7"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="833"/>
-  </r>
-  <r>
-    <s v="Shr_U16"/>
-    <s v="2E5E"/>
+    <s v="S"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="From64_U16"/>
+    <s v="52F"/>
     <x v="7"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="1167"/>
-  </r>
-  <r>
-    <s v="Shr_S32"/>
-    <s v="-1BBCB029"/>
+    <s v="U"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <s v="From64_S32"/>
+    <s v="-22C7D3B1"/>
     <x v="7"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="334"/>
-  </r>
-  <r>
-    <s v="Shr_U32"/>
-    <s v="-1B3A99FE"/>
+    <s v="S"/>
+    <n v="2333"/>
+  </r>
+  <r>
+    <s v="From64_U32"/>
+    <s v="-18F8AAAD"/>
     <x v="7"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
-  </r>
-  <r>
-    <s v="Shr_S64"/>
-    <s v="40BFF77B"/>
+    <s v="U"/>
+    <n v="2333"/>
+  </r>
+  <r>
+    <s v="From64_S64"/>
+    <s v="-76DFAFD1"/>
     <x v="7"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="1833"/>
-  </r>
-  <r>
-    <s v="Shr_U64"/>
-    <s v="-4E1D929F"/>
+    <s v="S"/>
+    <n v="1166"/>
+  </r>
+  <r>
+    <s v="From64_U64"/>
+    <s v="16F878B4"/>
     <x v="7"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <s v="And_S8"/>
-    <n v="-79"/>
+    <s v="U"/>
+    <n v="1167"/>
+  </r>
+  <r>
+    <s v="From64_F"/>
+    <s v="7FFFFFFF"/>
+    <x v="7"/>
+    <s v="F"/>
+    <x v="4"/>
+    <s v="F"/>
+    <n v="8340"/>
+  </r>
+  <r>
+    <s v="From64_D"/>
+    <s v="7FFFFFFF"/>
+    <x v="7"/>
+    <s v="D"/>
+    <x v="5"/>
+    <s v="D"/>
+    <n v="11334"/>
+  </r>
+  <r>
+    <s v="Shl_S8"/>
+    <n v="-35"/>
     <x v="8"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="833"/>
-  </r>
-  <r>
-    <s v="And_U8"/>
-    <s v="6B"/>
+    <s v="S"/>
+    <n v="999"/>
+  </r>
+  <r>
+    <s v="Shl_U8"/>
+    <n v="56"/>
     <x v="8"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="And_S16"/>
-    <n v="3465"/>
+    <s v="U"/>
+    <n v="1167"/>
+  </r>
+  <r>
+    <s v="Shl_S16"/>
+    <n v="-2319"/>
     <x v="8"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="834"/>
-  </r>
-  <r>
-    <s v="And_U16"/>
-    <s v="3A1E"/>
+    <s v="S"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <s v="Shl_U16"/>
+    <n v="3233"/>
     <x v="8"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="And_S32"/>
-    <s v="358670B1"/>
+    <s v="U"/>
+    <n v="1166"/>
+  </r>
+  <r>
+    <s v="Shl_S32"/>
+    <s v="742217EA"/>
     <x v="8"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="334"/>
-  </r>
-  <r>
-    <s v="And_U32"/>
-    <s v="-4EA64626"/>
+    <s v="S"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="Shl_U32"/>
+    <s v="-150E991D"/>
     <x v="8"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
-  </r>
-  <r>
-    <s v="And_S64"/>
-    <s v="2A537947"/>
+    <s v="U"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="Shl_S64"/>
+    <s v="6D21471B"/>
     <x v="8"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="And_U64"/>
-    <s v="-36D9902C"/>
+    <s v="S"/>
+    <n v="2333"/>
+  </r>
+  <r>
+    <s v="Shl_U64"/>
+    <s v="2ACEC80F"/>
     <x v="8"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="Or_S8"/>
-    <n v="-12"/>
+    <s v="U"/>
+    <n v="2333"/>
+  </r>
+  <r>
+    <s v="Shr_S8"/>
+    <n v="22"/>
     <x v="9"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="S"/>
     <n v="833"/>
   </r>
   <r>
-    <s v="Or_U8"/>
-    <n v="8"/>
+    <s v="Shr_U8"/>
+    <s v="8D"/>
     <x v="9"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="Or_S16"/>
-    <n v="-3429"/>
+    <s v="U"/>
+    <n v="1167"/>
+  </r>
+  <r>
+    <s v="Shr_S16"/>
+    <s v="-4CA7"/>
     <x v="9"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
+    <s v="S"/>
     <n v="833"/>
   </r>
   <r>
-    <s v="Or_U16"/>
-    <s v="39F5"/>
+    <s v="Shr_U16"/>
+    <s v="E56"/>
     <x v="9"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="Or_S32"/>
-    <s v="3DBB087"/>
+    <s v="U"/>
+    <n v="1166"/>
+  </r>
+  <r>
+    <s v="Shr_S32"/>
+    <s v="-2B55B02B"/>
     <x v="9"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="333"/>
-  </r>
-  <r>
-    <s v="Or_U32"/>
-    <s v="-653EB132"/>
+    <s v="S"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="Shr_U32"/>
+    <s v="-5C410735"/>
     <x v="9"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="333"/>
-  </r>
-  <r>
-    <s v="Or_S64"/>
-    <s v="-4C9B4BC5"/>
+    <s v="U"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="Shr_S64"/>
+    <s v="64E861C1"/>
     <x v="9"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="Or_U64"/>
-    <s v="-3D237E5B"/>
+    <s v="S"/>
+    <n v="2166"/>
+  </r>
+  <r>
+    <s v="Shr_U64"/>
+    <s v="31C5F276"/>
     <x v="9"/>
     <s v="U64"/>
     <x v="3"/>
-    <x v="1"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <s v="Mod_S8"/>
-    <n v="-5"/>
+    <s v="U"/>
+    <n v="2333"/>
+  </r>
+  <r>
+    <s v="And_S8"/>
+    <s v="-5B"/>
     <x v="10"/>
     <s v="S8"/>
     <x v="0"/>
-    <x v="0"/>
-    <n v="1977"/>
-  </r>
-  <r>
-    <s v="Mod_U8"/>
-    <s v="FD"/>
+    <s v="S"/>
+    <n v="833"/>
+  </r>
+  <r>
+    <s v="And_U8"/>
+    <n v="28"/>
     <x v="10"/>
     <s v="U8"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="1979"/>
-  </r>
-  <r>
-    <s v="Mod_S16"/>
-    <n v="-829"/>
+    <s v="U"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <s v="And_S16"/>
+    <s v="4C5C"/>
     <x v="10"/>
     <s v="S16"/>
     <x v="1"/>
-    <x v="0"/>
-    <n v="1981"/>
-  </r>
-  <r>
-    <s v="Mod_U16"/>
-    <s v="682F"/>
+    <s v="S"/>
+    <n v="833"/>
+  </r>
+  <r>
+    <s v="And_U16"/>
+    <s v="B9F"/>
     <x v="10"/>
     <s v="U16"/>
     <x v="1"/>
-    <x v="1"/>
-    <n v="1981"/>
-  </r>
-  <r>
-    <s v="Mod_S32"/>
-    <s v="-43F16848"/>
+    <s v="U"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <s v="And_S32"/>
+    <s v="-48F1F045"/>
     <x v="10"/>
     <s v="S32"/>
     <x v="2"/>
-    <x v="0"/>
-    <n v="1149"/>
-  </r>
-  <r>
-    <s v="Mod_U32"/>
-    <s v="-3C579005"/>
+    <s v="S"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="And_U32"/>
+    <s v="-56B54919"/>
     <x v="10"/>
     <s v="U32"/>
     <x v="2"/>
-    <x v="1"/>
-    <n v="981"/>
-  </r>
-  <r>
-    <s v="Mod_S64"/>
-    <n v="-7.0661999999999997E+85"/>
+    <s v="U"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="And_S64"/>
+    <s v="28EF75A5"/>
     <x v="10"/>
     <s v="S64"/>
     <x v="3"/>
-    <x v="0"/>
-    <n v="12482"/>
-  </r>
-  <r>
-    <s v="Mod_U64"/>
-    <s v="11D04109"/>
+    <s v="S"/>
+    <n v="1333"/>
+  </r>
+  <r>
+    <s v="And_U64"/>
+    <s v="-5333421D"/>
     <x v="10"/>
     <s v="U64"/>
     <x v="3"/>
+    <s v="U"/>
+    <n v="1333"/>
+  </r>
+  <r>
+    <s v="Or_S8"/>
+    <s v="5E"/>
+    <x v="11"/>
+    <s v="S8"/>
+    <x v="0"/>
+    <s v="S"/>
+    <n v="833"/>
+  </r>
+  <r>
+    <s v="Or_U8"/>
+    <n v="63"/>
+    <x v="11"/>
+    <s v="U8"/>
+    <x v="0"/>
+    <s v="U"/>
+    <n v="999"/>
+  </r>
+  <r>
+    <s v="Or_S16"/>
+    <s v="-298C"/>
+    <x v="11"/>
+    <s v="S16"/>
     <x v="1"/>
-    <n v="11983"/>
+    <s v="S"/>
+    <n v="833"/>
+  </r>
+  <r>
+    <s v="Or_U16"/>
+    <s v="A548"/>
+    <x v="11"/>
+    <s v="U16"/>
+    <x v="1"/>
+    <s v="U"/>
+    <n v="999"/>
+  </r>
+  <r>
+    <s v="Or_S32"/>
+    <s v="-7BF3BED1"/>
+    <x v="11"/>
+    <s v="S32"/>
+    <x v="2"/>
+    <s v="S"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="Or_U32"/>
+    <s v="-21F6B202"/>
+    <x v="11"/>
+    <s v="U32"/>
+    <x v="2"/>
+    <s v="U"/>
+    <n v="666"/>
+  </r>
+  <r>
+    <s v="Or_S64"/>
+    <s v="100AD930"/>
+    <x v="11"/>
+    <s v="S64"/>
+    <x v="3"/>
+    <s v="S"/>
+    <n v="1333"/>
+  </r>
+  <r>
+    <s v="Or_U64"/>
+    <s v="72DE9C25"/>
+    <x v="11"/>
+    <s v="U64"/>
+    <x v="3"/>
+    <s v="U"/>
+    <n v="1333"/>
+  </r>
+  <r>
+    <s v="Mod_S8"/>
+    <s v="-6D"/>
+    <x v="12"/>
+    <s v="S8"/>
+    <x v="0"/>
+    <s v="S"/>
+    <n v="1977"/>
+  </r>
+  <r>
+    <s v="Mod_U8"/>
+    <s v="FD"/>
+    <x v="12"/>
+    <s v="U8"/>
+    <x v="0"/>
+    <s v="U"/>
+    <n v="1979"/>
+  </r>
+  <r>
+    <s v="Mod_S16"/>
+    <n v="-1745"/>
+    <x v="12"/>
+    <s v="S16"/>
+    <x v="1"/>
+    <s v="S"/>
+    <n v="1981"/>
+  </r>
+  <r>
+    <s v="Mod_U16"/>
+    <s v="EC39"/>
+    <x v="12"/>
+    <s v="U16"/>
+    <x v="1"/>
+    <s v="U"/>
+    <n v="1980"/>
+  </r>
+  <r>
+    <s v="Mod_S32"/>
+    <s v="55AF43DE"/>
+    <x v="12"/>
+    <s v="S32"/>
+    <x v="2"/>
+    <s v="S"/>
+    <n v="1481"/>
+  </r>
+  <r>
+    <s v="Mod_U32"/>
+    <s v="245BCD8"/>
+    <x v="12"/>
+    <s v="U32"/>
+    <x v="2"/>
+    <s v="U"/>
+    <n v="1314"/>
+  </r>
+  <r>
+    <s v="Mod_S64"/>
+    <s v="-59C20960"/>
+    <x v="12"/>
+    <s v="S64"/>
+    <x v="3"/>
+    <s v="S"/>
+    <n v="12981"/>
+  </r>
+  <r>
+    <s v="Mod_U64"/>
+    <s v="7232D45B"/>
+    <x v="12"/>
+    <s v="U64"/>
+    <x v="3"/>
+    <s v="U"/>
+    <n v="12315"/>
   </r>
   <r>
     <s v="Mod_F"/>
     <s v="7FFFFFFF"/>
-    <x v="10"/>
+    <x v="12"/>
     <s v="F"/>
     <x v="4"/>
-    <x v="2"/>
-    <n v="16909"/>
+    <s v="F"/>
+    <n v="17453"/>
   </r>
   <r>
     <s v="Mod_D"/>
     <s v="7FFFFFFF"/>
-    <x v="10"/>
+    <x v="12"/>
     <s v="D"/>
     <x v="5"/>
+    <s v="D"/>
+    <n v="22848"/>
+  </r>
+  <r>
+    <s v="Divf_S8"/>
+    <s v="-1D"/>
+    <x v="13"/>
+    <s v="S8"/>
+    <x v="0"/>
+    <s v="S"/>
+    <n v="6482"/>
+  </r>
+  <r>
+    <s v="Divf_U8"/>
+    <n v="15"/>
+    <x v="13"/>
+    <s v="U8"/>
+    <x v="0"/>
+    <s v="U"/>
+    <n v="6649"/>
+  </r>
+  <r>
+    <s v="Divf_S16"/>
+    <n v="6279"/>
+    <x v="13"/>
+    <s v="S16"/>
+    <x v="1"/>
+    <s v="S"/>
+    <n v="6500"/>
+  </r>
+  <r>
+    <s v="Divf_U16"/>
+    <s v="1B65"/>
+    <x v="13"/>
+    <s v="U16"/>
+    <x v="1"/>
+    <s v="U"/>
+    <n v="6666"/>
+  </r>
+  <r>
+    <s v="Divf_S32"/>
+    <s v="9E86D"/>
+    <x v="13"/>
+    <s v="S32"/>
+    <x v="2"/>
+    <s v="S"/>
+    <n v="5667"/>
+  </r>
+  <r>
+    <s v="Divf_U32"/>
+    <s v="927BE"/>
+    <x v="13"/>
+    <s v="U32"/>
+    <x v="2"/>
+    <s v="U"/>
+    <n v="5666"/>
+  </r>
+  <r>
+    <s v="Divf_S64"/>
+    <s v="92BD3"/>
+    <x v="13"/>
+    <s v="S64"/>
     <x v="3"/>
-    <n v="22379"/>
+    <s v="S"/>
+    <n v="24016"/>
+  </r>
+  <r>
+    <s v="Divf_U64"/>
+    <s v="833B2"/>
+    <x v="13"/>
+    <s v="U64"/>
+    <x v="3"/>
+    <s v="U"/>
+    <n v="22183"/>
+  </r>
+  <r>
+    <s v="Divf_F"/>
+    <s v="1223FC"/>
+    <x v="13"/>
+    <s v="F"/>
+    <x v="4"/>
+    <s v="F"/>
+    <n v="4666"/>
+  </r>
+  <r>
+    <s v="Divf_D"/>
+    <s v="8AB6C"/>
+    <x v="13"/>
+    <s v="D"/>
+    <x v="5"/>
+    <s v="D"/>
+    <n v="7333"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2456930-F9DA-4AAC-95EA-5D72C298F3C8}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="I3:J67" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{046DE031-3108-4ABD-BD7A-8FB8EFC2ECE7}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="I3:J65" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="15">
         <item x="2"/>
         <item x="1"/>
         <item x="0"/>
-        <item x="3"/>
+        <item h="1" x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item h="1" x="8"/>
+        <item x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="11"/>
+        <item h="1" x="12"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
+        <item x="13"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3248,22 +3824,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
+    <field x="2"/>
     <field x="4"/>
-    <field x="2"/>
   </rowFields>
-  <rowItems count="64">
+  <rowItems count="62">
     <i>
       <x/>
     </i>
@@ -3274,6 +3842,9 @@
       <x v="1"/>
     </i>
     <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
       <x v="3"/>
     </i>
     <i r="1">
@@ -3281,9 +3852,6 @@
     </i>
     <i r="1">
       <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
     </i>
     <i>
       <x v="1"/>
@@ -3306,9 +3874,6 @@
     <i r="1">
       <x v="5"/>
     </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
     <i>
       <x v="2"/>
     </i>
@@ -3329,57 +3894,6 @@
     </i>
     <i r="1">
       <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
     </i>
     <i>
       <x v="4"/>
@@ -3402,21 +3916,6 @@
     <i r="1">
       <x v="5"/>
     </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
     <i>
       <x v="5"/>
     </i>
@@ -3438,20 +3937,83 @@
     <i r="1">
       <x v="5"/>
     </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
+    <i>
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="8"/>
+      <x v="2"/>
     </i>
     <i r="1">
-      <x v="9"/>
+      <x v="3"/>
     </i>
     <i r="1">
-      <x v="10"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -3461,10 +4023,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of time" fld="6" subtotal="average" baseField="2" baseItem="0" numFmtId="1"/>
+    <dataField name="Average of time" fld="6" subtotal="average" baseField="0" baseItem="4472728"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="1" format="2" series="1">
+    <chartFormat chart="1" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -3783,9 +4345,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7535B02-3E32-4F41-8329-65FD0A7F0772}">
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3808,7 +4373,7 @@
         <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>77</v>
@@ -3848,7 +4413,7 @@
         <v>74</v>
       </c>
       <c r="G2">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3877,7 +4442,7 @@
         <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3903,10 +4468,10 @@
         <v>1167</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="7">
-        <v>6896.833333333333</v>
+        <v>80</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1310.8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3929,13 +4494,13 @@
         <v>75</v>
       </c>
       <c r="G5">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2278</v>
+        <v>18</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2611</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -3958,13 +4523,13 @@
         <v>74</v>
       </c>
       <c r="G6">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="7">
-        <v>7000</v>
+        <v>76</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2166</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -3987,13 +4552,13 @@
         <v>75</v>
       </c>
       <c r="G7">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" s="7">
-        <v>2390</v>
+        <v>99</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1082.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4016,13 +4581,13 @@
         <v>74</v>
       </c>
       <c r="G8">
-        <v>2166</v>
+        <v>2500</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J8" s="7">
-        <v>3667</v>
+        <v>97</v>
+      </c>
+      <c r="J8" s="9">
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4045,13 +4610,13 @@
         <v>75</v>
       </c>
       <c r="G9">
-        <v>2167</v>
+        <v>2499</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" s="7">
-        <v>3667</v>
+        <v>100</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1333</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4074,13 +4639,13 @@
         <v>76</v>
       </c>
       <c r="G10">
-        <v>1833</v>
+        <v>2166</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J10" s="7">
-        <v>22379</v>
+        <v>98</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4097,19 +4662,19 @@
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11">
-        <v>2833</v>
+        <v>3166</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11" s="7">
-        <v>4634.375</v>
+        <v>79</v>
+      </c>
+      <c r="J11" s="9">
+        <v>4617.8999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4135,10 +4700,10 @@
         <v>1644</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1834</v>
+        <v>18</v>
+      </c>
+      <c r="J12" s="9">
+        <v>7334</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4164,10 +4729,10 @@
         <v>1646</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="7">
-        <v>4333</v>
+        <v>76</v>
+      </c>
+      <c r="J13" s="9">
+        <v>4667</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4190,13 +4755,13 @@
         <v>74</v>
       </c>
       <c r="G14">
+        <v>1649</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="9">
         <v>1648</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="7">
-        <v>2333</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4222,10 +4787,10 @@
         <v>1647</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1833</v>
+        <v>97</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1397.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4248,13 +4813,13 @@
         <v>74</v>
       </c>
       <c r="G16">
-        <v>1148</v>
+        <v>1481</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="7">
-        <v>4000</v>
+        <v>100</v>
+      </c>
+      <c r="J16" s="9">
+        <v>12398.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -4277,13 +4842,13 @@
         <v>75</v>
       </c>
       <c r="G17">
-        <v>981</v>
+        <v>1314</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" s="7">
-        <v>3500</v>
+        <v>98</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1645</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -4306,13 +4871,13 @@
         <v>74</v>
       </c>
       <c r="G18">
-        <v>12149</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J18" s="7">
-        <v>16909</v>
+        <v>12648</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1699.6</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -4335,13 +4900,13 @@
         <v>75</v>
       </c>
       <c r="G19">
-        <v>11816</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1201.1363636363637</v>
+        <v>12149</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="9">
+        <v>3166</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -4364,13 +4929,13 @@
         <v>76</v>
       </c>
       <c r="G20">
-        <v>4333</v>
+        <v>4667</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1083</v>
+        <v>76</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2166</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4393,13 +4958,13 @@
         <v>18</v>
       </c>
       <c r="G21">
-        <v>7000</v>
+        <v>7334</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1647.5</v>
+        <v>99</v>
+      </c>
+      <c r="J21" s="9">
+        <v>1250</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4425,10 +4990,10 @@
         <v>1000</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1250.5</v>
+        <v>97</v>
+      </c>
+      <c r="J22" s="9">
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4454,10 +5019,10 @@
         <v>1166</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1083</v>
+        <v>100</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2499.5</v>
       </c>
       <c r="K23" s="5"/>
     </row>
@@ -4481,13 +5046,13 @@
         <v>74</v>
       </c>
       <c r="G24">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J24" s="7">
-        <v>583.5</v>
+        <v>98</v>
+      </c>
+      <c r="J24" s="9">
+        <v>1249.5</v>
       </c>
       <c r="K24" s="5"/>
     </row>
@@ -4513,11 +5078,11 @@
       <c r="G25">
         <v>1166</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1667</v>
+      <c r="I25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1516.6</v>
       </c>
       <c r="K25" s="6"/>
     </row>
@@ -4541,13 +5106,13 @@
         <v>74</v>
       </c>
       <c r="G26">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J26" s="7">
-        <v>1083.5</v>
+        <v>18</v>
+      </c>
+      <c r="J26" s="9">
+        <v>4000</v>
       </c>
       <c r="K26" s="6"/>
     </row>
@@ -4571,13 +5136,13 @@
         <v>75</v>
       </c>
       <c r="G27">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1000</v>
+        <v>76</v>
+      </c>
+      <c r="J27" s="9">
+        <v>4167</v>
       </c>
       <c r="K27" s="6"/>
     </row>
@@ -4601,13 +5166,13 @@
         <v>74</v>
       </c>
       <c r="G28">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J28" s="7">
-        <v>917</v>
+        <v>99</v>
+      </c>
+      <c r="J28" s="9">
+        <v>916.5</v>
       </c>
       <c r="K28" s="5"/>
     </row>
@@ -4631,13 +5196,13 @@
         <v>75</v>
       </c>
       <c r="G29">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="7">
-        <v>916.5</v>
+        <v>97</v>
+      </c>
+      <c r="J29" s="9">
+        <v>667</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" t="s">
@@ -4664,13 +5229,13 @@
         <v>76</v>
       </c>
       <c r="G30">
-        <v>1834</v>
+        <v>2166</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J30" s="7">
-        <v>1981</v>
+        <v>100</v>
+      </c>
+      <c r="J30" s="9">
+        <v>999.5</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="5" t="s">
@@ -4697,17 +5262,17 @@
         <v>18</v>
       </c>
       <c r="G31">
-        <v>2278</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="7">
-        <v>481.40909090909093</v>
+        <v>2611</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="9">
+        <v>916.5</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -4732,11 +5297,11 @@
       <c r="G32">
         <v>999</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="7">
-        <v>333</v>
+      <c r="I32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2233</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6" t="s">
@@ -4766,10 +5331,10 @@
         <v>1166</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="7">
-        <v>1064.5</v>
+        <v>18</v>
+      </c>
+      <c r="J33" s="9">
+        <v>3833</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>102</v>
@@ -4798,10 +5363,10 @@
         <v>1000</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="7">
-        <v>500</v>
+        <v>76</v>
+      </c>
+      <c r="J34" s="9">
+        <v>3666</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>103</v>
@@ -4830,10 +5395,10 @@
         <v>1166</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J35" s="7">
-        <v>333</v>
+        <v>99</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1750</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>104</v>
@@ -4859,16 +5424,16 @@
         <v>74</v>
       </c>
       <c r="G36">
-        <v>333</v>
+        <v>666</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J36" s="7">
-        <v>333</v>
+        <v>97</v>
+      </c>
+      <c r="J36" s="9">
+        <v>666</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -4891,16 +5456,16 @@
         <v>75</v>
       </c>
       <c r="G37">
-        <v>333</v>
+        <v>666</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J37" s="7">
-        <v>333.5</v>
+        <v>100</v>
+      </c>
+      <c r="J37" s="9">
+        <v>2500</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -4923,16 +5488,16 @@
         <v>74</v>
       </c>
       <c r="G38">
-        <v>1000</v>
+        <v>1333</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J38" s="7">
-        <v>333.5</v>
+        <v>98</v>
+      </c>
+      <c r="J38" s="9">
+        <v>2499.5</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -4955,15 +5520,17 @@
         <v>75</v>
       </c>
       <c r="G39">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J39" s="7">
-        <v>333.5</v>
-      </c>
-      <c r="L39" s="5"/>
+        <v>1333</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1228.75</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -4985,13 +5552,13 @@
         <v>76</v>
       </c>
       <c r="G40">
-        <v>1833</v>
+        <v>2166</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J40" s="7">
-        <v>333.5</v>
+        <v>99</v>
+      </c>
+      <c r="J40" s="9">
+        <v>999.5</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5014,13 +5581,16 @@
         <v>18</v>
       </c>
       <c r="G41">
-        <v>2390</v>
+        <v>2723</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J41" s="7">
-        <v>333</v>
+        <v>97</v>
+      </c>
+      <c r="J41" s="9">
+        <v>666</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -5043,13 +5613,13 @@
         <v>74</v>
       </c>
       <c r="G42">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="7">
-        <v>1065</v>
+        <v>100</v>
+      </c>
+      <c r="J42" s="9">
+        <v>2249.5</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -5072,13 +5642,13 @@
         <v>75</v>
       </c>
       <c r="G43">
-        <v>500</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J43" s="7">
-        <v>3466.5</v>
+        <v>833</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="9">
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -5101,13 +5671,13 @@
         <v>74</v>
       </c>
       <c r="G44">
-        <v>667</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J44" s="7">
         <v>1000</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="J44" s="9">
+        <v>5234.3</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5130,13 +5700,13 @@
         <v>75</v>
       </c>
       <c r="G45">
-        <v>500</v>
+        <v>833</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" s="7">
-        <v>11982.5</v>
+        <v>18</v>
+      </c>
+      <c r="J45" s="9">
+        <v>19003</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -5159,13 +5729,13 @@
         <v>74</v>
       </c>
       <c r="G46">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J46" s="7">
-        <v>2166.5</v>
+        <v>76</v>
+      </c>
+      <c r="J46" s="9">
+        <v>16675</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -5188,13 +5758,13 @@
         <v>75</v>
       </c>
       <c r="G47">
-        <v>333</v>
+        <v>667</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J47" s="7">
-        <v>1000</v>
+        <v>99</v>
+      </c>
+      <c r="J47" s="9">
+        <v>2416.5</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -5217,13 +5787,13 @@
         <v>74</v>
       </c>
       <c r="G48">
-        <v>667</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J48" s="7">
-        <v>1583.5</v>
+        <v>97</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2166.5</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5246,13 +5816,13 @@
         <v>75</v>
       </c>
       <c r="G49">
-        <v>2500</v>
+        <v>999</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J49" s="7">
-        <v>2250</v>
+        <v>100</v>
+      </c>
+      <c r="J49" s="9">
+        <v>1166</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5275,13 +5845,13 @@
         <v>76</v>
       </c>
       <c r="G50">
-        <v>4000</v>
+        <v>4167</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J50" s="7">
-        <v>2000</v>
+        <v>98</v>
+      </c>
+      <c r="J50" s="9">
+        <v>2583.5</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5304,13 +5874,13 @@
         <v>18</v>
       </c>
       <c r="G51">
-        <v>3667</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J51" s="7">
-        <v>1916.5</v>
+        <v>4000</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="J51" s="9">
+        <v>3667.3</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5333,13 +5903,13 @@
         <v>74</v>
       </c>
       <c r="G52">
-        <v>2167</v>
+        <v>2499</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J52" s="7">
-        <v>1000</v>
+        <v>18</v>
+      </c>
+      <c r="J52" s="9">
+        <v>11334</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5362,13 +5932,13 @@
         <v>75</v>
       </c>
       <c r="G53">
-        <v>2333</v>
+        <v>2500</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J53" s="7">
-        <v>1000</v>
+        <v>76</v>
+      </c>
+      <c r="J53" s="9">
+        <v>8340</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5391,13 +5961,13 @@
         <v>74</v>
       </c>
       <c r="G54">
-        <v>2334</v>
+        <v>2500</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J54" s="7">
-        <v>12232.5</v>
+        <v>99</v>
+      </c>
+      <c r="J54" s="9">
+        <v>2500</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5422,11 +5992,11 @@
       <c r="G55">
         <v>1000</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="J55" s="7">
-        <v>1253.5</v>
+      <c r="I55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" s="9">
+        <v>2333</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5450,13 +6020,13 @@
         <v>74</v>
       </c>
       <c r="G56">
-        <v>334</v>
+        <v>666</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1083</v>
+        <v>100</v>
+      </c>
+      <c r="J56" s="9">
+        <v>1166.5</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5479,13 +6049,13 @@
         <v>75</v>
       </c>
       <c r="G57">
-        <v>333</v>
+        <v>666</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="J57" s="7">
-        <v>1645</v>
+        <v>98</v>
+      </c>
+      <c r="J57" s="9">
+        <v>2500</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -5508,13 +6078,13 @@
         <v>74</v>
       </c>
       <c r="G58">
-        <v>2167</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J58" s="7">
-        <v>1250</v>
+        <v>2500</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J58" s="9">
+        <v>9582.7999999999993</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -5537,13 +6107,13 @@
         <v>75</v>
       </c>
       <c r="G59">
-        <v>2333</v>
+        <v>2500</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="7">
-        <v>1082.5</v>
+        <v>18</v>
+      </c>
+      <c r="J59" s="9">
+        <v>7333</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -5566,13 +6136,13 @@
         <v>76</v>
       </c>
       <c r="G60">
-        <v>3500</v>
+        <v>3666</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J60" s="7">
-        <v>583.5</v>
+        <v>76</v>
+      </c>
+      <c r="J60" s="9">
+        <v>4666</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -5595,24 +6165,24 @@
         <v>18</v>
       </c>
       <c r="G61">
-        <v>3667</v>
+        <v>3833</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J61" s="7">
-        <v>2250</v>
+        <v>99</v>
+      </c>
+      <c r="J61" s="9">
+        <v>6583</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" t="s">
-        <v>139</v>
+        <v>192</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
         <v>83</v>
@@ -5624,24 +6194,24 @@
         <v>74</v>
       </c>
       <c r="G62">
-        <v>1000</v>
+        <v>2667</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J62" s="7">
-        <v>1083.5</v>
+        <v>97</v>
+      </c>
+      <c r="J62" s="9">
+        <v>5666.5</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>142</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
         <v>84</v>
@@ -5653,25 +6223,24 @@
         <v>75</v>
       </c>
       <c r="G63">
-        <v>1167</v>
+        <v>2500</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J63" s="7">
-        <v>1000</v>
+        <v>100</v>
+      </c>
+      <c r="J63" s="9">
+        <v>23099.5</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" t="e">
-        <f>-C60</f>
-        <v>#VALUE!</v>
+        <v>196</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
         <v>85</v>
@@ -5683,24 +6252,24 @@
         <v>74</v>
       </c>
       <c r="G64">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="J64" s="7">
-        <v>916.5</v>
+        <v>98</v>
+      </c>
+      <c r="J64" s="9">
+        <v>6565.5</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
         <v>86</v>
@@ -5712,24 +6281,24 @@
         <v>75</v>
       </c>
       <c r="G65">
-        <v>1167</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="J65" s="7">
-        <v>916.5</v>
+        <v>2333</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J65" s="9">
+        <v>3505.1477272727275</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
         <v>87</v>
@@ -5741,24 +6310,18 @@
         <v>74</v>
       </c>
       <c r="G66">
-        <v>334</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="J66" s="7">
-        <v>1978</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -5770,24 +6333,18 @@
         <v>75</v>
       </c>
       <c r="G67">
-        <v>333</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J67" s="7">
-        <v>2150.1176470588234</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
         <v>89</v>
@@ -5799,18 +6356,18 @@
         <v>74</v>
       </c>
       <c r="G68">
-        <v>2000</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D69" t="s">
         <v>90</v>
@@ -5822,346 +6379,346 @@
         <v>75</v>
       </c>
       <c r="G69">
-        <v>2000</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="D70" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G70">
-        <v>833</v>
+        <v>16675</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71">
-        <v>82</v>
+        <v>209</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G71">
-        <v>1167</v>
+        <v>19003</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="B72">
-        <v>-942</v>
+        <v>-3</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F72" t="s">
         <v>74</v>
       </c>
       <c r="G72">
-        <v>833</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" t="s">
-        <v>160</v>
+        <v>212</v>
+      </c>
+      <c r="B73">
+        <v>34</v>
       </c>
       <c r="C73" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F73" t="s">
         <v>75</v>
       </c>
       <c r="G73">
-        <v>1167</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F74" t="s">
         <v>74</v>
       </c>
       <c r="G74">
-        <v>334</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B75" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F75" t="s">
         <v>75</v>
       </c>
       <c r="G75">
-        <v>333</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
         <v>74</v>
       </c>
       <c r="G76">
-        <v>1833</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E77" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
         <v>75</v>
       </c>
       <c r="G77">
-        <v>2000</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78">
-        <v>-79</v>
+        <v>221</v>
+      </c>
+      <c r="B78" t="s">
+        <v>222</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F78" t="s">
         <v>74</v>
       </c>
       <c r="G78">
-        <v>833</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="B79" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F79" t="s">
         <v>75</v>
       </c>
       <c r="G79">
-        <v>1000</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
-      </c>
-      <c r="B80">
-        <v>3465</v>
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G80">
-        <v>834</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="B81" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G81">
-        <v>1000</v>
+        <v>11334</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>176</v>
-      </c>
-      <c r="B82" t="s">
-        <v>177</v>
+        <v>138</v>
+      </c>
+      <c r="B82">
+        <v>-35</v>
       </c>
       <c r="C82" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D82" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F82" t="s">
         <v>74</v>
       </c>
       <c r="G82">
-        <v>334</v>
+        <v>999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s">
-        <v>179</v>
+        <v>140</v>
+      </c>
+      <c r="B83">
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D83" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
         <v>75</v>
       </c>
       <c r="G83">
-        <v>333</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>180</v>
-      </c>
-      <c r="B84" t="s">
-        <v>181</v>
+        <v>141</v>
+      </c>
+      <c r="B84">
+        <v>-2319</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
         <v>74</v>
@@ -6172,439 +6729,1129 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>182</v>
-      </c>
-      <c r="B85" t="s">
-        <v>183</v>
+        <v>142</v>
+      </c>
+      <c r="B85">
+        <v>3233</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F85" t="s">
         <v>75</v>
       </c>
       <c r="G85">
-        <v>1000</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>184</v>
-      </c>
-      <c r="B86">
-        <v>-12</v>
+        <v>143</v>
+      </c>
+      <c r="B86" t="s">
+        <v>227</v>
       </c>
       <c r="C86" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F86" t="s">
         <v>74</v>
       </c>
       <c r="G86">
-        <v>833</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>186</v>
-      </c>
-      <c r="B87">
-        <v>8</v>
+        <v>144</v>
+      </c>
+      <c r="B87" t="s">
+        <v>228</v>
       </c>
       <c r="C87" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87" t="s">
         <v>75</v>
       </c>
       <c r="G87">
-        <v>1000</v>
+        <v>666</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>187</v>
-      </c>
-      <c r="B88">
-        <v>-3429</v>
+        <v>145</v>
+      </c>
+      <c r="B88" t="s">
+        <v>229</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
         <v>74</v>
       </c>
       <c r="G88">
-        <v>833</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C89" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F89" t="s">
         <v>75</v>
       </c>
       <c r="G89">
-        <v>1000</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>190</v>
-      </c>
-      <c r="B90" t="s">
-        <v>191</v>
+        <v>147</v>
+      </c>
+      <c r="B90">
+        <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F90" t="s">
         <v>74</v>
       </c>
       <c r="G90">
-        <v>333</v>
+        <v>833</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E91" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F91" t="s">
         <v>75</v>
       </c>
       <c r="G91">
-        <v>333</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F92" t="s">
         <v>74</v>
       </c>
       <c r="G92">
-        <v>1000</v>
+        <v>833</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F93" t="s">
         <v>75</v>
       </c>
       <c r="G93">
-        <v>1000</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
-      </c>
-      <c r="B94">
-        <v>-5</v>
+        <v>152</v>
+      </c>
+      <c r="B94" t="s">
+        <v>234</v>
       </c>
       <c r="C94" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D94" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F94" t="s">
         <v>74</v>
       </c>
       <c r="G94">
-        <v>1977</v>
+        <v>666</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C95" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F95" t="s">
         <v>75</v>
       </c>
       <c r="G95">
-        <v>1979</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>206</v>
-      </c>
-      <c r="B96">
-        <v>-829</v>
+        <v>154</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D96" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
         <v>74</v>
       </c>
       <c r="G96">
-        <v>1981</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F97" t="s">
         <v>75</v>
       </c>
       <c r="G97">
-        <v>1981</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D98" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F98" t="s">
         <v>74</v>
       </c>
       <c r="G98">
-        <v>1149</v>
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>211</v>
-      </c>
-      <c r="B99" t="s">
-        <v>212</v>
+        <v>158</v>
+      </c>
+      <c r="B99">
+        <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D99" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F99" t="s">
         <v>75</v>
       </c>
       <c r="G99">
-        <v>981</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>213</v>
-      </c>
-      <c r="B100" s="8">
-        <v>-7.0661999999999997E+85</v>
+        <v>159</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F100" t="s">
         <v>74</v>
       </c>
       <c r="G100">
-        <v>12482</v>
+        <v>833</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D101" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F101" t="s">
         <v>75</v>
       </c>
       <c r="G101">
-        <v>11983</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="D102" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E102" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="F102" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G102">
-        <v>16909</v>
+        <v>666</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" t="s">
+        <v>88</v>
+      </c>
+      <c r="E103" t="s">
+        <v>97</v>
+      </c>
+      <c r="F103" t="s">
+        <v>75</v>
+      </c>
+      <c r="G103">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" t="s">
+        <v>243</v>
+      </c>
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+      <c r="D104" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" t="s">
+        <v>100</v>
+      </c>
+      <c r="F104" t="s">
+        <v>74</v>
+      </c>
+      <c r="G104">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>164</v>
+      </c>
+      <c r="B105" t="s">
+        <v>244</v>
+      </c>
+      <c r="C105" t="s">
+        <v>157</v>
+      </c>
+      <c r="D105" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" t="s">
+        <v>100</v>
+      </c>
+      <c r="F105" t="s">
+        <v>75</v>
+      </c>
+      <c r="G105">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" t="s">
+        <v>245</v>
+      </c>
+      <c r="C106" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" t="s">
+        <v>74</v>
+      </c>
+      <c r="G106">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>166</v>
+      </c>
+      <c r="D107" t="s">
+        <v>84</v>
+      </c>
+      <c r="E107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" t="s">
+        <v>75</v>
+      </c>
+      <c r="G107">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" t="s">
+        <v>246</v>
+      </c>
+      <c r="C108" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" t="s">
+        <v>74</v>
+      </c>
+      <c r="G108">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" t="s">
+        <v>166</v>
+      </c>
+      <c r="D109" t="s">
+        <v>86</v>
+      </c>
+      <c r="E109" t="s">
+        <v>99</v>
+      </c>
+      <c r="F109" t="s">
+        <v>75</v>
+      </c>
+      <c r="G109">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" t="s">
+        <v>248</v>
+      </c>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" t="s">
+        <v>97</v>
+      </c>
+      <c r="F110" t="s">
+        <v>74</v>
+      </c>
+      <c r="G110">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" t="s">
+        <v>166</v>
+      </c>
+      <c r="D111" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" t="s">
+        <v>97</v>
+      </c>
+      <c r="F111" t="s">
+        <v>75</v>
+      </c>
+      <c r="G111">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C112" t="s">
+        <v>166</v>
+      </c>
+      <c r="D112" t="s">
+        <v>89</v>
+      </c>
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+      <c r="F112" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+      <c r="D113" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" t="s">
+        <v>100</v>
+      </c>
+      <c r="F113" t="s">
+        <v>75</v>
+      </c>
+      <c r="G113">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>178</v>
+      </c>
+      <c r="B114" t="s">
+        <v>252</v>
+      </c>
+      <c r="C114" t="s">
+        <v>179</v>
+      </c>
+      <c r="D114" t="s">
+        <v>83</v>
+      </c>
+      <c r="E114" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" t="s">
+        <v>74</v>
+      </c>
+      <c r="G114">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" t="s">
+        <v>181</v>
+      </c>
+      <c r="C115" t="s">
+        <v>179</v>
+      </c>
+      <c r="D115" t="s">
+        <v>84</v>
+      </c>
+      <c r="E115" t="s">
+        <v>98</v>
+      </c>
+      <c r="F115" t="s">
+        <v>75</v>
+      </c>
+      <c r="G115">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116">
+        <v>-1745</v>
+      </c>
+      <c r="C116" t="s">
+        <v>179</v>
+      </c>
+      <c r="D116" t="s">
+        <v>85</v>
+      </c>
+      <c r="E116" t="s">
+        <v>99</v>
+      </c>
+      <c r="F116" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>179</v>
+      </c>
+      <c r="D117" t="s">
+        <v>86</v>
+      </c>
+      <c r="E117" t="s">
+        <v>99</v>
+      </c>
+      <c r="F117" t="s">
+        <v>75</v>
+      </c>
+      <c r="G117">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" t="s">
+        <v>254</v>
+      </c>
+      <c r="C118" t="s">
+        <v>179</v>
+      </c>
+      <c r="D118" t="s">
+        <v>87</v>
+      </c>
+      <c r="E118" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" t="s">
+        <v>74</v>
+      </c>
+      <c r="G118">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+      <c r="B119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" t="s">
+        <v>88</v>
+      </c>
+      <c r="E119" t="s">
+        <v>97</v>
+      </c>
+      <c r="F119" t="s">
+        <v>75</v>
+      </c>
+      <c r="G119">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>186</v>
+      </c>
+      <c r="B120" t="s">
+        <v>256</v>
+      </c>
+      <c r="C120" t="s">
+        <v>179</v>
+      </c>
+      <c r="D120" t="s">
+        <v>89</v>
+      </c>
+      <c r="E120" t="s">
+        <v>100</v>
+      </c>
+      <c r="F120" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120">
+        <v>12981</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" t="s">
+        <v>100</v>
+      </c>
+      <c r="F121" t="s">
+        <v>75</v>
+      </c>
+      <c r="G121">
+        <v>12315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>188</v>
+      </c>
+      <c r="B122" t="s">
         <v>15</v>
       </c>
-      <c r="C103" t="s">
-        <v>203</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C122" t="s">
+        <v>179</v>
+      </c>
+      <c r="D122" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" t="s">
+        <v>76</v>
+      </c>
+      <c r="F122" t="s">
+        <v>76</v>
+      </c>
+      <c r="G122">
+        <v>17453</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>189</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>179</v>
+      </c>
+      <c r="D123" t="s">
         <v>18</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E123" t="s">
         <v>18</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F123" t="s">
         <v>18</v>
       </c>
-      <c r="G103">
-        <v>22379</v>
+      <c r="G123">
+        <v>22848</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" t="s">
+        <v>259</v>
+      </c>
+      <c r="C124" t="s">
+        <v>260</v>
+      </c>
+      <c r="D124" t="s">
+        <v>83</v>
+      </c>
+      <c r="E124" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" t="s">
+        <v>74</v>
+      </c>
+      <c r="G124">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>261</v>
+      </c>
+      <c r="B125">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>260</v>
+      </c>
+      <c r="D125" t="s">
+        <v>84</v>
+      </c>
+      <c r="E125" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" t="s">
+        <v>75</v>
+      </c>
+      <c r="G125">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>262</v>
+      </c>
+      <c r="B126">
+        <v>6279</v>
+      </c>
+      <c r="C126" t="s">
+        <v>260</v>
+      </c>
+      <c r="D126" t="s">
+        <v>85</v>
+      </c>
+      <c r="E126" t="s">
+        <v>99</v>
+      </c>
+      <c r="F126" t="s">
+        <v>74</v>
+      </c>
+      <c r="G126">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>263</v>
+      </c>
+      <c r="B127" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" t="s">
+        <v>260</v>
+      </c>
+      <c r="D127" t="s">
+        <v>86</v>
+      </c>
+      <c r="E127" t="s">
+        <v>99</v>
+      </c>
+      <c r="F127" t="s">
+        <v>75</v>
+      </c>
+      <c r="G127">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>260</v>
+      </c>
+      <c r="D128" t="s">
+        <v>87</v>
+      </c>
+      <c r="E128" t="s">
+        <v>97</v>
+      </c>
+      <c r="F128" t="s">
+        <v>74</v>
+      </c>
+      <c r="G128">
+        <v>5667</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>267</v>
+      </c>
+      <c r="B129" t="s">
+        <v>268</v>
+      </c>
+      <c r="C129" t="s">
+        <v>260</v>
+      </c>
+      <c r="D129" t="s">
+        <v>88</v>
+      </c>
+      <c r="E129" t="s">
+        <v>97</v>
+      </c>
+      <c r="F129" t="s">
+        <v>75</v>
+      </c>
+      <c r="G129">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>269</v>
+      </c>
+      <c r="B130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" t="s">
+        <v>260</v>
+      </c>
+      <c r="D130" t="s">
+        <v>89</v>
+      </c>
+      <c r="E130" t="s">
+        <v>100</v>
+      </c>
+      <c r="F130" t="s">
+        <v>74</v>
+      </c>
+      <c r="G130">
+        <v>24016</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>271</v>
+      </c>
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>260</v>
+      </c>
+      <c r="D131" t="s">
+        <v>90</v>
+      </c>
+      <c r="E131" t="s">
+        <v>100</v>
+      </c>
+      <c r="F131" t="s">
+        <v>75</v>
+      </c>
+      <c r="G131">
+        <v>22183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>273</v>
+      </c>
+      <c r="B132" t="s">
+        <v>274</v>
+      </c>
+      <c r="C132" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" t="s">
+        <v>76</v>
+      </c>
+      <c r="E132" t="s">
+        <v>76</v>
+      </c>
+      <c r="F132" t="s">
+        <v>76</v>
+      </c>
+      <c r="G132">
+        <v>4666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>275</v>
+      </c>
+      <c r="B133" t="s">
+        <v>276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>260</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133" t="s">
+        <v>18</v>
+      </c>
+      <c r="F133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133">
+        <v>7333</v>
       </c>
     </row>
   </sheetData>
@@ -6615,4 +7862,395 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B012A9C-D341-47C4-B1B2-1543A73C63C5}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="10">
+        <v>833</v>
+      </c>
+      <c r="C2" s="10">
+        <v>833</v>
+      </c>
+      <c r="D2" s="10">
+        <v>833</v>
+      </c>
+      <c r="E2" s="10">
+        <v>2166</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="10">
+        <v>666</v>
+      </c>
+      <c r="C3" s="10">
+        <v>666</v>
+      </c>
+      <c r="D3" s="10">
+        <v>666</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="10">
+        <v>667</v>
+      </c>
+      <c r="C4" s="10">
+        <v>667</v>
+      </c>
+      <c r="D4" s="10">
+        <v>667</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2166</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2166</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3666</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3666</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1400</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12400</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4667</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4667</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="10">
+        <v>666</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2240</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2166</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>999</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4167</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10">
+        <f>SUM(B2:B12)</f>
+        <v>4232</v>
+      </c>
+      <c r="C14" s="10">
+        <f>SUM(C2:C12)</f>
+        <v>19971</v>
+      </c>
+      <c r="D14" s="10">
+        <f>SUM(D2:D12)</f>
+        <v>16331</v>
+      </c>
+      <c r="E14" s="10">
+        <f>SUM(E2:E12)</f>
+        <v>13166</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="10">
+        <v>833</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <v>2166</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="10">
+        <v>666</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="10">
+        <v>667</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <v>2166</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10">
+        <f>SUM(B17:B27)</f>
+        <v>2166</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10">
+        <f>SUM(E17:E27)</f>
+        <v>4332</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>